--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32588-d643869-Reviews-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Laguna-Beach-Inn.h1713503.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,301 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r435887197-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32588</t>
+  </si>
+  <si>
+    <t>643869</t>
+  </si>
+  <si>
+    <t>435887197</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay !</t>
+  </si>
+  <si>
+    <t>The outside part of the hotel is great. Nice pool, nice garden to relax. The building is very cosy. The room will soon be refreshed. It's a must. It will be really excellent, once it's done. Go for it after the refresh.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r428136565-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428136565</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Beautiful outside</t>
+  </si>
+  <si>
+    <t>The rooms are very small. Furniture is old and musty. No airconditioning. Peeling paint on the walls in the bathroom. The outside landscaping is beautiful. The pool wonderful. Check in very friendly and helpful. Wonderful place to stay if you don't mind ancient furniture, old rugs and small rooms. Everything was clean! Not far from the beach. Would stay here again and just close my eyes about the inside of the rooms.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r418873430-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>418873430</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Quaint escape</t>
+  </si>
+  <si>
+    <t>Good price. Great location. They will be 'modernizing' soon so see it now to get this price $$. It is an outdated hotel and it is probably priced fairly. When they upgrade though it will probably be overpriced.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r394894603-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>394894603</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Quaint no frills gem by the beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an all time favorite of mine.  Close enough to the Main Beach and shops/restaurants but far enough to avoid  the tourists and crowds.  The pool is lovely, there is fresh coffee daily, and the beach is right down the street.  I have not been since the change in management this month but hear it has only gotten better.  I look forward to my next visit </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r393377738-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>393377738</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>What an incredible surprise this quaint and oh so charming inn was. Checking in with Alex and finding parking a little challenging, he offered to give up his very own parking space to let us nest in for the evening, Give up a parking space in Laguna Beach? You've got to be kidding!! If you're looking for luxurious resort type lodging, this is not the place for you. If you want a comfortable and adorable family style little nest.. Look no further. Although completely booked, all the guests were very respectful of one another. Fifty years ago, this clearly was a garden apartment complex consisting of 22 unique rooms, The lush and pampered foliage welcomes you and invites for a relaxing and peaceful getaway.A short walk to the complimentary shuttle service into town and all the incomparable shopping runs from 8.a,m. til 11:30 p.m. Will go back often and soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>What an incredible surprise this quaint and oh so charming inn was. Checking in with Alex and finding parking a little challenging, he offered to give up his very own parking space to let us nest in for the evening, Give up a parking space in Laguna Beach? You've got to be kidding!! If you're looking for luxurious resort type lodging, this is not the place for you. If you want a comfortable and adorable family style little nest.. Look no further. Although completely booked, all the guests were very respectful of one another. Fifty years ago, this clearly was a garden apartment complex consisting of 22 unique rooms, The lush and pampered foliage welcomes you and invites for a relaxing and peaceful getaway.A short walk to the complimentary shuttle service into town and all the incomparable shopping runs from 8.a,m. til 11:30 p.m. Will go back often and soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r384729198-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>384729198</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Needs Work Bad</t>
+  </si>
+  <si>
+    <t>I stayed one week June 9-16 2016. My 1st issue was checking in. The manager, John, quoted $599 a week and I could bring my dog.
+When I checked in, the Asian owner then told me she wanted $699 and no dog and the two of them argued in front of me like Lucy and Ricky. It was uncomfortable and I felt the Asian lady was taking advantage of me.
+When I got to the $599 room the 1st thing I noticed was a rock holding up the bed frame. I never had hot water the whole stay. (A short kind of hot shower once in the filthy stall with an old - and I mean OLD shower curtain)
+ The sink overflowed each time I tried to run the water till it was hot. I couldn't run it for long enough to get hot water. The sink filled up and wouldn't drain.
+Then I noticed the screens were all broken and needed replacing badly. Under the bed had never been vaccumed and the baseboards had dust &amp; dirt for years. 
+Venture into the kitchen where the crud between the tiles appeared to have never been cleaned. I was afraid to look in the cabinets.There is absolutely no silverware no plastic ware, no plates, no soap, no sponge, no paper towels and no ice.( except for outside) 
+I went out and bought my own bleach cleaner to spray on the counters...I stayed one week June 9-16 2016. My 1st issue was checking in. The manager, John, quoted $599 a week and I could bring my dog.When I checked in, the Asian owner then told me she wanted $699 and no dog and the two of them argued in front of me like Lucy and Ricky. It was uncomfortable and I felt the Asian lady was taking advantage of me.When I got to the $599 room the 1st thing I noticed was a rock holding up the bed frame. I never had hot water the whole stay. (A short kind of hot shower once in the filthy stall with an old - and I mean OLD shower curtain) The sink overflowed each time I tried to run the water till it was hot. I couldn't run it for long enough to get hot water. The sink filled up and wouldn't drain.Then I noticed the screens were all broken and needed replacing badly. Under the bed had never been vaccumed and the baseboards had dust &amp; dirt for years. Venture into the kitchen where the crud between the tiles appeared to have never been cleaned. I was afraid to look in the cabinets.There is absolutely no silverware no plastic ware, no plates, no soap, no sponge, no paper towels and no ice.( except for outside) I went out and bought my own bleach cleaner to spray on the counters and floors as well because of the mold in the cracks and guck stuck everywhere was awful. And the kitchen smelled. Opened the refrigerator and could see why. There is mold in there amongst old eggs and junk dripping down inside. Just  disgusting. The couch has some type of a cover thrown on top of it. It too was filthy, and the furniture was old and out of place. By that I mean a dresser with a lamp in front of it so you couldn't open the drawers. And speaking of that I only had one lamp that worked in the whole place. The 2 by the bed couldn't turn on.The management, John, is like The Soup Nazi on Seinfeld. At night hes yelling in Iranian on the phone till the wee hours of the morning at someone cussing. He's not personable, he's rude and he's drunk by 8 o'clock. Then he likes you and wants to talk to you for as long as you can stand it. Albeit condescending. The grounds are nice and we'll kept. And the pool isn't heated! The location is great and the rooms very spacious. Very quaint place. But it's dirty. REALLY dirty. It's actually for sale. Maybe the new owners will clean it up. Or the health department.There is zero professionalism  here. None. Youre treated like your burdening John. He is curt and uncouth in the extreme. Even burps with bad breath and the scent of booze  that follows goes in your face.And their dishonest thieves as well. I left two things in the room. One, an expensive magnifying mirror and the other a necklace- just costume jewelry. When I went back 2 hours later to retrieve them, can you imagine the stuff was gone? And the maid claimed to not know where it went. Now this is a big magnifying mirror that you have to pull off of the mirror that's attached to the medicine cabinet. The maid ( who does as little as possible ) claimed not to know what Im talking about and John told me that it was just gone. Too bad. They didn't take it, but it was gone. "I did all I can" he said. The maid absolutely took both things! And John has been of no help in my attempts to retrieve them. Never returned my calls back when he says he will. I never did get it back or a call back.For $700 I should have because I paid enough and it's mine. Beware, once John increases that tax on your room to 12% ( tax is 7.75%) you're going to notice a difference in the quote for the room and the final cost of the room. Huge increase. Keep your eye out. He gets you where he can. And the maid keeps all she can!I would say if you bring your own Lysol, Pine Sol and cleaning gloves, don't forget the Windex, paper plates, paper cups. paper towels, dish soap and sponge, trash bags ( they give you a liner for a small waste basket) and also don't mind plunging the toilet and don't let the clogged  sink over flow. Then you may have an OK time. Shaws Cove is right down the alley.But don't forget anything. You'll never get it back. I'd say save the money. Not worth it at all. It was the most embarrassing room I've ever been in and they were the worst staff a I've ever encountered..They didn't need to steal from me. And they did.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sally F, Manager at Laguna Beach Motor Inn, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>I stayed one week June 9-16 2016. My 1st issue was checking in. The manager, John, quoted $599 a week and I could bring my dog.
+When I checked in, the Asian owner then told me she wanted $699 and no dog and the two of them argued in front of me like Lucy and Ricky. It was uncomfortable and I felt the Asian lady was taking advantage of me.
+When I got to the $599 room the 1st thing I noticed was a rock holding up the bed frame. I never had hot water the whole stay. (A short kind of hot shower once in the filthy stall with an old - and I mean OLD shower curtain)
+ The sink overflowed each time I tried to run the water till it was hot. I couldn't run it for long enough to get hot water. The sink filled up and wouldn't drain.
+Then I noticed the screens were all broken and needed replacing badly. Under the bed had never been vaccumed and the baseboards had dust &amp; dirt for years. 
+Venture into the kitchen where the crud between the tiles appeared to have never been cleaned. I was afraid to look in the cabinets.There is absolutely no silverware no plastic ware, no plates, no soap, no sponge, no paper towels and no ice.( except for outside) 
+I went out and bought my own bleach cleaner to spray on the counters...I stayed one week June 9-16 2016. My 1st issue was checking in. The manager, John, quoted $599 a week and I could bring my dog.When I checked in, the Asian owner then told me she wanted $699 and no dog and the two of them argued in front of me like Lucy and Ricky. It was uncomfortable and I felt the Asian lady was taking advantage of me.When I got to the $599 room the 1st thing I noticed was a rock holding up the bed frame. I never had hot water the whole stay. (A short kind of hot shower once in the filthy stall with an old - and I mean OLD shower curtain) The sink overflowed each time I tried to run the water till it was hot. I couldn't run it for long enough to get hot water. The sink filled up and wouldn't drain.Then I noticed the screens were all broken and needed replacing badly. Under the bed had never been vaccumed and the baseboards had dust &amp; dirt for years. Venture into the kitchen where the crud between the tiles appeared to have never been cleaned. I was afraid to look in the cabinets.There is absolutely no silverware no plastic ware, no plates, no soap, no sponge, no paper towels and no ice.( except for outside) I went out and bought my own bleach cleaner to spray on the counters and floors as well because of the mold in the cracks and guck stuck everywhere was awful. And the kitchen smelled. Opened the refrigerator and could see why. There is mold in there amongst old eggs and junk dripping down inside. Just  disgusting. The couch has some type of a cover thrown on top of it. It too was filthy, and the furniture was old and out of place. By that I mean a dresser with a lamp in front of it so you couldn't open the drawers. And speaking of that I only had one lamp that worked in the whole place. The 2 by the bed couldn't turn on.The management, John, is like The Soup Nazi on Seinfeld. At night hes yelling in Iranian on the phone till the wee hours of the morning at someone cussing. He's not personable, he's rude and he's drunk by 8 o'clock. Then he likes you and wants to talk to you for as long as you can stand it. Albeit condescending. The grounds are nice and we'll kept. And the pool isn't heated! The location is great and the rooms very spacious. Very quaint place. But it's dirty. REALLY dirty. It's actually for sale. Maybe the new owners will clean it up. Or the health department.There is zero professionalism  here. None. Youre treated like your burdening John. He is curt and uncouth in the extreme. Even burps with bad breath and the scent of booze  that follows goes in your face.And their dishonest thieves as well. I left two things in the room. One, an expensive magnifying mirror and the other a necklace- just costume jewelry. When I went back 2 hours later to retrieve them, can you imagine the stuff was gone? And the maid claimed to not know where it went. Now this is a big magnifying mirror that you have to pull off of the mirror that's attached to the medicine cabinet. The maid ( who does as little as possible ) claimed not to know what Im talking about and John told me that it was just gone. Too bad. They didn't take it, but it was gone. "I did all I can" he said. The maid absolutely took both things! And John has been of no help in my attempts to retrieve them. Never returned my calls back when he says he will. I never did get it back or a call back.For $700 I should have because I paid enough and it's mine. Beware, once John increases that tax on your room to 12% ( tax is 7.75%) you're going to notice a difference in the quote for the room and the final cost of the room. Huge increase. Keep your eye out. He gets you where he can. And the maid keeps all she can!I would say if you bring your own Lysol, Pine Sol and cleaning gloves, don't forget the Windex, paper plates, paper cups. paper towels, dish soap and sponge, trash bags ( they give you a liner for a small waste basket) and also don't mind plunging the toilet and don't let the clogged  sink over flow. Then you may have an OK time. Shaws Cove is right down the alley.But don't forget anything. You'll never get it back. I'd say save the money. Not worth it at all. It was the most embarrassing room I've ever been in and they were the worst staff a I've ever encountered..They didn't need to steal from me. And they did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r231354592-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>231354592</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Older Hotel with lots of Character!!</t>
+  </si>
+  <si>
+    <t>I stayed at the Laguna Beach Motor Inn during a 10 training session. The older property was very adequate!  Very Clean, Very comfortable bed, great view! John, owner, was very cordial! I WOULD recomendMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at the Laguna Beach Motor Inn during a 10 training session. The older property was very adequate!  Very Clean, Very comfortable bed, great view! John, owner, was very cordial! I WOULD recomendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r229615180-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>229615180</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Hidden gem..  My new home away from home.</t>
+  </si>
+  <si>
+    <t>I planned a weekend to get away with my mom.  We both love Laguna Beach and I was shopping around for the perfect place for us.  I walked into the Motor Inn and met John who immediately offered to show me a room!!  It was like stepping back into time.  John wrote down my info on a little piece of paper...  and remembered me by name when we arrived!!  We booked our next trip at check-out.I found paradise at the Laguna Motor Inn.  It is to the left of the downtown action which means it is quiet, beautiful and a little less rushed.  My aunt and uncle celebrated their anniversary there and were very pleased as well!! There are shops, restaurants and a grocery store within walking distance.  There is also a free trolley that will take you into downtown, to the sawdust and the main beach.  It is also just a short walk to Hyde Park and nice restaurants.  More importantly, walk behind the inn, across one street and down the stairs to beautiful Shaw's Cove...  You can see the ocean from the balcony.  Step into your total relaxation.  Quaint rooms, immaculate courtyard, nice swimming pool.  I could live here!!  HIGHLY RECOMMEND.  Not a fancy place but a classy place with whole lot of charm...  love it.  I look forward to visiting in the Fall.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I planned a weekend to get away with my mom.  We both love Laguna Beach and I was shopping around for the perfect place for us.  I walked into the Motor Inn and met John who immediately offered to show me a room!!  It was like stepping back into time.  John wrote down my info on a little piece of paper...  and remembered me by name when we arrived!!  We booked our next trip at check-out.I found paradise at the Laguna Motor Inn.  It is to the left of the downtown action which means it is quiet, beautiful and a little less rushed.  My aunt and uncle celebrated their anniversary there and were very pleased as well!! There are shops, restaurants and a grocery store within walking distance.  There is also a free trolley that will take you into downtown, to the sawdust and the main beach.  It is also just a short walk to Hyde Park and nice restaurants.  More importantly, walk behind the inn, across one street and down the stairs to beautiful Shaw's Cove...  You can see the ocean from the balcony.  Step into your total relaxation.  Quaint rooms, immaculate courtyard, nice swimming pool.  I could live here!!  HIGHLY RECOMMEND.  Not a fancy place but a classy place with whole lot of charm...  love it.  I look forward to visiting in the Fall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r211301786-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>211301786</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>This old little hotel is awesome!</t>
+  </si>
+  <si>
+    <t>We arrived at 5:30 on Friday night we got the last room. The cove is 1block from hotel the courtyard is beautiful!! We had a  Great evening and we are looking forward to tomorrow!! Very clean rooms the people here are amazing!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r141779088-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>141779088</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Motel review</t>
+  </si>
+  <si>
+    <t>We arrived in Laguna not knowing where to stay or where the motels were located. Came across this motel very close to the centre of Laguna and so we gave it a go. It was a Friday night and the offer price was very reasonable however the owner just failed to sell the positive aspects of the motel. The motel had lovely gardens and a beautiful pool, the sea is visible from the gardens and both the town and the beaches are very close by. Our room was big and airy with a separate kitchen and the room was equipped with a microwave and fridge freezer. There was coffee freely available all day and there is free wifi, all for the reasonable price on a Friday evening. So why didn't the owner tell us all this ?????? If there was an event at the olymcs of 'one word answers' the owner would win gold! Maybe the motel is a training groud for telepathy ! But now you know what it has to offer ! As stated it is ideally located the rooms were good and well equipped and there is a large supermarket across the road ideally placed. It was good value and we would definatly stay there again when in Laguna now my telepathy skills have been honed !!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We arrived in Laguna not knowing where to stay or where the motels were located. Came across this motel very close to the centre of Laguna and so we gave it a go. It was a Friday night and the offer price was very reasonable however the owner just failed to sell the positive aspects of the motel. The motel had lovely gardens and a beautiful pool, the sea is visible from the gardens and both the town and the beaches are very close by. Our room was big and airy with a separate kitchen and the room was equipped with a microwave and fridge freezer. There was coffee freely available all day and there is free wifi, all for the reasonable price on a Friday evening. So why didn't the owner tell us all this ?????? If there was an event at the olymcs of 'one word answers' the owner would win gold! Maybe the motel is a training groud for telepathy ! But now you know what it has to offer ! As stated it is ideally located the rooms were good and well equipped and there is a large supermarket across the road ideally placed. It was good value and we would definatly stay there again when in Laguna now my telepathy skills have been honed !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r73303706-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>73303706</t>
+  </si>
+  <si>
+    <t>08/01/2010</t>
+  </si>
+  <si>
+    <t>Only worth staying at if you want to be able to walk to the beach</t>
+  </si>
+  <si>
+    <t>My girlfriend and I took a recent vacation to Cali that was unexpectedly extended due to car problems. We stumbled upon this hotel by chance. It was the first hotel we came across when we entered into Lugana Beach and we saw that it was only a block from the beach. The rate for a Monday was only $99 so we decided to stay there.  The hotel was very old so we didn't expect much. 
+When we entered our room Ie saw that it was somewhat smaller than average. The bathroom and shower were very small. The room had a queen bed, small refrigerator, table, and two chairs. The walls had been freshly painted (possibly from a remodel) and everything seemed cleaned. It wasn't until later in the night when I went to turn the heater on that I noticed that there was no ac/heater system installed in the room. There was only a small portable plug-in heater/fan in the room (it actually worked quite well). I then went to call the front desk and saw that the room had no phone, or even phone lines installed. At this point, I was not surprised to see that their was no clock in the room either.  
+Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just...My girlfriend and I took a recent vacation to Cali that was unexpectedly extended due to car problems. We stumbled upon this hotel by chance. It was the first hotel we came across when we entered into Lugana Beach and we saw that it was only a block from the beach. The rate for a Monday was only $99 so we decided to stay there.  The hotel was very old so we didn't expect much. When we entered our room Ie saw that it was somewhat smaller than average. The bathroom and shower were very small. The room had a queen bed, small refrigerator, table, and two chairs. The walls had been freshly painted (possibly from a remodel) and everything seemed cleaned. It wasn't until later in the night when I went to turn the heater on that I noticed that there was no ac/heater system installed in the room. There was only a small portable plug-in heater/fan in the room (it actually worked quite well). I then went to call the front desk and saw that the room had no phone, or even phone lines installed. At this point, I was not surprised to see that their was no clock in the room either.  Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just outside of the room's entry door was a hallway balcony with two sitting chairs where you could sit and watch traffic. We saw that positioned throughout the hotels courtyard were potted plants. The grounds grass and schrubbery were immaculately maintained. There was a soda machine, ice maker, and coffe maker near the office. The pool was a nice size (up tp 7 feet deep) and also heated. No jacuzzi though.In the morning we walked down a steep hill from the hotel and numerous stairs as we descended into a cliff to the beach. There was about 200 yards of beach where we were at and it was bordered on both sides by rocks (similar to a reef). The back drop was the cliff itself behind us. There were only about 30 other people on the beach. We saw that there were snorkerlers in the water, a couple of professional photographers taking pictures (one of a couple poising), and a fisherman on the nearby rocks, it had the feel of a private beach. I don't know the name of the beach but it definitely is a best kept secret. We were aware that there were better rooms available at the hotel with a view, kitchen, or balcony but at much higher rates. Some of the rooms are 3 month rentals and possibly longer. I don't think the hotel quality would have improved if we spent more money on a better room and if we were willing to do so we would probably be staying somewhere else. Although our room had no ac controls, telephone (hence no room service), or clock we found that we did not need these items anyway. The weather was comfortable at about 75 degrees during our stay and at night the heater fan worked quite well. Also, I used my cell phone to make calls and also as an alarm clock. My girlfriend and I talked in depth about this hotel and we both reached the same conclusion. Despite its many short comings, the distance to such a remarkable beach made up for it. Ordinarily when we are on vacation we don't spend much time in the hotel room anyway. We found this hotel to be clean and we felt safe in it. We would stay here again and recommend it to a friend however, if you want luxury and to be pampered your better off staying elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My girlfriend and I took a recent vacation to Cali that was unexpectedly extended due to car problems. We stumbled upon this hotel by chance. It was the first hotel we came across when we entered into Lugana Beach and we saw that it was only a block from the beach. The rate for a Monday was only $99 so we decided to stay there.  The hotel was very old so we didn't expect much. 
+When we entered our room Ie saw that it was somewhat smaller than average. The bathroom and shower were very small. The room had a queen bed, small refrigerator, table, and two chairs. The walls had been freshly painted (possibly from a remodel) and everything seemed cleaned. It wasn't until later in the night when I went to turn the heater on that I noticed that there was no ac/heater system installed in the room. There was only a small portable plug-in heater/fan in the room (it actually worked quite well). I then went to call the front desk and saw that the room had no phone, or even phone lines installed. At this point, I was not surprised to see that their was no clock in the room either.  
+Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just...My girlfriend and I took a recent vacation to Cali that was unexpectedly extended due to car problems. We stumbled upon this hotel by chance. It was the first hotel we came across when we entered into Lugana Beach and we saw that it was only a block from the beach. The rate for a Monday was only $99 so we decided to stay there.  The hotel was very old so we didn't expect much. When we entered our room Ie saw that it was somewhat smaller than average. The bathroom and shower were very small. The room had a queen bed, small refrigerator, table, and two chairs. The walls had been freshly painted (possibly from a remodel) and everything seemed cleaned. It wasn't until later in the night when I went to turn the heater on that I noticed that there was no ac/heater system installed in the room. There was only a small portable plug-in heater/fan in the room (it actually worked quite well). I then went to call the front desk and saw that the room had no phone, or even phone lines installed. At this point, I was not surprised to see that their was no clock in the room either.  Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just outside of the room's entry door was a hallway balcony with two sitting chairs where you could sit and watch traffic. We saw that positioned throughout the hotels courtyard were potted plants. The grounds grass and schrubbery were immaculately maintained. There was a soda machine, ice maker, and coffe maker near the office. The pool was a nice size (up tp 7 feet deep) and also heated. No jacuzzi though.In the morning we walked down a steep hill from the hotel and numerous stairs as we descended into a cliff to the beach. There was about 200 yards of beach where we were at and it was bordered on both sides by rocks (similar to a reef). The back drop was the cliff itself behind us. There were only about 30 other people on the beach. We saw that there were snorkerlers in the water, a couple of professional photographers taking pictures (one of a couple poising), and a fisherman on the nearby rocks, it had the feel of a private beach. I don't know the name of the beach but it definitely is a best kept secret. We were aware that there were better rooms available at the hotel with a view, kitchen, or balcony but at much higher rates. Some of the rooms are 3 month rentals and possibly longer. I don't think the hotel quality would have improved if we spent more money on a better room and if we were willing to do so we would probably be staying somewhere else. Although our room had no ac controls, telephone (hence no room service), or clock we found that we did not need these items anyway. The weather was comfortable at about 75 degrees during our stay and at night the heater fan worked quite well. Also, I used my cell phone to make calls and also as an alarm clock. My girlfriend and I talked in depth about this hotel and we both reached the same conclusion. Despite its many short comings, the distance to such a remarkable beach made up for it. Ordinarily when we are on vacation we don't spend much time in the hotel room anyway. We found this hotel to be clean and we felt safe in it. We would stay here again and recommend it to a friend however, if you want luxury and to be pampered your better off staying elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r34188468-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>34188468</t>
+  </si>
+  <si>
+    <t>07/07/2009</t>
+  </si>
+  <si>
+    <t>this is a charming older hotel.</t>
+  </si>
+  <si>
+    <t>We had an ocean view suite with a balcony in the front of the room with a table and chairs.  We had a couple chairs and table in the room along with a refrigerato and microwave.  We stayed on a Monday night and it was only $129.   It is and older remodel hotel.  The bed was comfortable and it was worth the money.  It is a quick walk to the beach.  The grounds at the hotel are very charming.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r6821792-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>6821792</t>
+  </si>
+  <si>
+    <t>02/20/2007</t>
+  </si>
+  <si>
+    <t>Gross!!</t>
+  </si>
+  <si>
+    <t>The outside grounds were gorgeous and it even had a swimming pool, BUT everything else was below standards. The room had 2 queen beds (which were actually comfortable if you could get past looking at the falling apart box spring), lots of pillows, a 'dining' table and chairs which blocked the main door from opening all the way, a crammed fridge beyond that, which was not in the "kitchen" (which smelled of pure gas if you were able to even get the door open), and a very dinky bathroom. It seemed, quite frankly, like it was the "Bates Motel" from Hitchcock. Still the old-fashioned keys with your room number on it for all to see even. The paint was so thick on everything that it was sticky, and you could not even close the bathroom door. The windows seemed to be in place by sticky bad caulking. It turned out that people actually "live" at this place, and our neighbor liked to sit out on her 'porch' and screech on the phone for all to hear. It was truly miserable. The tv didn't work properly the first night we were there either - we only got the Animal Planet and Cartoon Network! The ONLY saving grace was that we did not spend much time in the room and a beautiful beach was a block's walk away.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>The outside grounds were gorgeous and it even had a swimming pool, BUT everything else was below standards. The room had 2 queen beds (which were actually comfortable if you could get past looking at the falling apart box spring), lots of pillows, a 'dining' table and chairs which blocked the main door from opening all the way, a crammed fridge beyond that, which was not in the "kitchen" (which smelled of pure gas if you were able to even get the door open), and a very dinky bathroom. It seemed, quite frankly, like it was the "Bates Motel" from Hitchcock. Still the old-fashioned keys with your room number on it for all to see even. The paint was so thick on everything that it was sticky, and you could not even close the bathroom door. The windows seemed to be in place by sticky bad caulking. It turned out that people actually "live" at this place, and our neighbor liked to sit out on her 'porch' and screech on the phone for all to hear. It was truly miserable. The tv didn't work properly the first night we were there either - we only got the Animal Planet and Cartoon Network! The ONLY saving grace was that we did not spend much time in the room and a beautiful beach was a block's walk away.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +943,833 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_476.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PhilippeMagali</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Jambree83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r428136565-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Bryan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r418873430-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>familygirls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r394894603-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve">This is an all time favorite of mine.  Close enough to the Main Beach and shops/restaurants but far enough to avoid  the tourists and crowds.  The pool is lovely, there is fresh coffee daily, and the beach is right down the street.  I have not been since the change in management this month but hear it has only gotten better.  I look forward to my next visit </t>
   </si>
   <si>
+    <t>ladykate_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r393377738-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -253,6 +268,9 @@
   </si>
   <si>
     <t>What an incredible surprise this quaint and oh so charming inn was. Checking in with Alex and finding parking a little challenging, he offered to give up his very own parking space to let us nest in for the evening, Give up a parking space in Laguna Beach? You've got to be kidding!! If you're looking for luxurious resort type lodging, this is not the place for you. If you want a comfortable and adorable family style little nest.. Look no further. Although completely booked, all the guests were very respectful of one another. Fifty years ago, this clearly was a garden apartment complex consisting of 22 unique rooms, The lush and pampered foliage welcomes you and invites for a relaxing and peaceful getaway.A short walk to the complimentary shuttle service into town and all the incomparable shopping runs from 8.a,m. til 11:30 p.m. Will go back often and soon.More</t>
+  </si>
+  <si>
+    <t>DeniseMDB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r384729198-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
@@ -297,6 +315,9 @@
 I went out and bought my own bleach cleaner to spray on the counters...I stayed one week June 9-16 2016. My 1st issue was checking in. The manager, John, quoted $599 a week and I could bring my dog.When I checked in, the Asian owner then told me she wanted $699 and no dog and the two of them argued in front of me like Lucy and Ricky. It was uncomfortable and I felt the Asian lady was taking advantage of me.When I got to the $599 room the 1st thing I noticed was a rock holding up the bed frame. I never had hot water the whole stay. (A short kind of hot shower once in the filthy stall with an old - and I mean OLD shower curtain) The sink overflowed each time I tried to run the water till it was hot. I couldn't run it for long enough to get hot water. The sink filled up and wouldn't drain.Then I noticed the screens were all broken and needed replacing badly. Under the bed had never been vaccumed and the baseboards had dust &amp; dirt for years. Venture into the kitchen where the crud between the tiles appeared to have never been cleaned. I was afraid to look in the cabinets.There is absolutely no silverware no plastic ware, no plates, no soap, no sponge, no paper towels and no ice.( except for outside) I went out and bought my own bleach cleaner to spray on the counters and floors as well because of the mold in the cracks and guck stuck everywhere was awful. And the kitchen smelled. Opened the refrigerator and could see why. There is mold in there amongst old eggs and junk dripping down inside. Just  disgusting. The couch has some type of a cover thrown on top of it. It too was filthy, and the furniture was old and out of place. By that I mean a dresser with a lamp in front of it so you couldn't open the drawers. And speaking of that I only had one lamp that worked in the whole place. The 2 by the bed couldn't turn on.The management, John, is like The Soup Nazi on Seinfeld. At night hes yelling in Iranian on the phone till the wee hours of the morning at someone cussing. He's not personable, he's rude and he's drunk by 8 o'clock. Then he likes you and wants to talk to you for as long as you can stand it. Albeit condescending. The grounds are nice and we'll kept. And the pool isn't heated! The location is great and the rooms very spacious. Very quaint place. But it's dirty. REALLY dirty. It's actually for sale. Maybe the new owners will clean it up. Or the health department.There is zero professionalism  here. None. Youre treated like your burdening John. He is curt and uncouth in the extreme. Even burps with bad breath and the scent of booze  that follows goes in your face.And their dishonest thieves as well. I left two things in the room. One, an expensive magnifying mirror and the other a necklace- just costume jewelry. When I went back 2 hours later to retrieve them, can you imagine the stuff was gone? And the maid claimed to not know where it went. Now this is a big magnifying mirror that you have to pull off of the mirror that's attached to the medicine cabinet. The maid ( who does as little as possible ) claimed not to know what Im talking about and John told me that it was just gone. Too bad. They didn't take it, but it was gone. "I did all I can" he said. The maid absolutely took both things! And John has been of no help in my attempts to retrieve them. Never returned my calls back when he says he will. I never did get it back or a call back.For $700 I should have because I paid enough and it's mine. Beware, once John increases that tax on your room to 12% ( tax is 7.75%) you're going to notice a difference in the quote for the room and the final cost of the room. Huge increase. Keep your eye out. He gets you where he can. And the maid keeps all she can!I would say if you bring your own Lysol, Pine Sol and cleaning gloves, don't forget the Windex, paper plates, paper cups. paper towels, dish soap and sponge, trash bags ( they give you a liner for a small waste basket) and also don't mind plunging the toilet and don't let the clogged  sink over flow. Then you may have an OK time. Shaws Cove is right down the alley.But don't forget anything. You'll never get it back. I'd say save the money. Not worth it at all. It was the most embarrassing room I've ever been in and they were the worst staff a I've ever encountered..They didn't need to steal from me. And they did.More</t>
   </si>
   <si>
+    <t>akennamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r231354592-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>I stayed at the Laguna Beach Motor Inn during a 10 training session. The older property was very adequate!  Very Clean, Very comfortable bed, great view! John, owner, was very cordial! I WOULD recomendMore</t>
   </si>
   <si>
+    <t>HedyvonRibbonTroff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r229615180-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>I planned a weekend to get away with my mom.  We both love Laguna Beach and I was shopping around for the perfect place for us.  I walked into the Motor Inn and met John who immediately offered to show me a room!!  It was like stepping back into time.  John wrote down my info on a little piece of paper...  and remembered me by name when we arrived!!  We booked our next trip at check-out.I found paradise at the Laguna Motor Inn.  It is to the left of the downtown action which means it is quiet, beautiful and a little less rushed.  My aunt and uncle celebrated their anniversary there and were very pleased as well!! There are shops, restaurants and a grocery store within walking distance.  There is also a free trolley that will take you into downtown, to the sawdust and the main beach.  It is also just a short walk to Hyde Park and nice restaurants.  More importantly, walk behind the inn, across one street and down the stairs to beautiful Shaw's Cove...  You can see the ocean from the balcony.  Step into your total relaxation.  Quaint rooms, immaculate courtyard, nice swimming pool.  I could live here!!  HIGHLY RECOMMEND.  Not a fancy place but a classy place with whole lot of charm...  love it.  I look forward to visiting in the Fall.More</t>
   </si>
   <si>
+    <t>Svectas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r211301786-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>We arrived at 5:30 on Friday night we got the last room. The cove is 1block from hotel the courtyard is beautiful!! We had a  Great evening and we are looking forward to tomorrow!! Very clean rooms the people here are amazing!!</t>
   </si>
   <si>
+    <t>Sausageface25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r141779088-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -379,6 +409,9 @@
   </si>
   <si>
     <t>We arrived in Laguna not knowing where to stay or where the motels were located. Came across this motel very close to the centre of Laguna and so we gave it a go. It was a Friday night and the offer price was very reasonable however the owner just failed to sell the positive aspects of the motel. The motel had lovely gardens and a beautiful pool, the sea is visible from the gardens and both the town and the beaches are very close by. Our room was big and airy with a separate kitchen and the room was equipped with a microwave and fridge freezer. There was coffee freely available all day and there is free wifi, all for the reasonable price on a Friday evening. So why didn't the owner tell us all this ?????? If there was an event at the olymcs of 'one word answers' the owner would win gold! Maybe the motel is a training groud for telepathy ! But now you know what it has to offer ! As stated it is ideally located the rooms were good and well equipped and there is a large supermarket across the road ideally placed. It was good value and we would definatly stay there again when in Laguna now my telepathy skills have been honed !!More</t>
+  </si>
+  <si>
+    <t>VegasTravelin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r73303706-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
@@ -406,6 +439,9 @@
 Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just...My girlfriend and I took a recent vacation to Cali that was unexpectedly extended due to car problems. We stumbled upon this hotel by chance. It was the first hotel we came across when we entered into Lugana Beach and we saw that it was only a block from the beach. The rate for a Monday was only $99 so we decided to stay there.  The hotel was very old so we didn't expect much. When we entered our room Ie saw that it was somewhat smaller than average. The bathroom and shower were very small. The room had a queen bed, small refrigerator, table, and two chairs. The walls had been freshly painted (possibly from a remodel) and everything seemed cleaned. It wasn't until later in the night when I went to turn the heater on that I noticed that there was no ac/heater system installed in the room. There was only a small portable plug-in heater/fan in the room (it actually worked quite well). I then went to call the front desk and saw that the room had no phone, or even phone lines installed. At this point, I was not surprised to see that their was no clock in the room either.  Our room was towards the front of the hotel which borders PCH. The walls looked thick but I woke up in the middle of the night from road noise (didn't bother my girlfriend's sleep). Just outside of the room's entry door was a hallway balcony with two sitting chairs where you could sit and watch traffic. We saw that positioned throughout the hotels courtyard were potted plants. The grounds grass and schrubbery were immaculately maintained. There was a soda machine, ice maker, and coffe maker near the office. The pool was a nice size (up tp 7 feet deep) and also heated. No jacuzzi though.In the morning we walked down a steep hill from the hotel and numerous stairs as we descended into a cliff to the beach. There was about 200 yards of beach where we were at and it was bordered on both sides by rocks (similar to a reef). The back drop was the cliff itself behind us. There were only about 30 other people on the beach. We saw that there were snorkerlers in the water, a couple of professional photographers taking pictures (one of a couple poising), and a fisherman on the nearby rocks, it had the feel of a private beach. I don't know the name of the beach but it definitely is a best kept secret. We were aware that there were better rooms available at the hotel with a view, kitchen, or balcony but at much higher rates. Some of the rooms are 3 month rentals and possibly longer. I don't think the hotel quality would have improved if we spent more money on a better room and if we were willing to do so we would probably be staying somewhere else. Although our room had no ac controls, telephone (hence no room service), or clock we found that we did not need these items anyway. The weather was comfortable at about 75 degrees during our stay and at night the heater fan worked quite well. Also, I used my cell phone to make calls and also as an alarm clock. My girlfriend and I talked in depth about this hotel and we both reached the same conclusion. Despite its many short comings, the distance to such a remarkable beach made up for it. Ordinarily when we are on vacation we don't spend much time in the hotel room anyway. We found this hotel to be clean and we felt safe in it. We would stay here again and recommend it to a friend however, if you want luxury and to be pampered your better off staying elsewhere.More</t>
   </si>
   <si>
+    <t>luv2otravel1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r34188468-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -422,6 +458,9 @@
   </si>
   <si>
     <t>July 2009</t>
+  </si>
+  <si>
+    <t>Lynn R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d643869-r6821792-Laguna_Beach_Motor_Inn-Laguna_Beach_California.html</t>
@@ -947,43 +986,47 @@
       <c r="A2" t="n">
         <v>45046</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1003,50 +1046,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45046</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1066,50 +1113,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45046</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1129,41 +1180,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45046</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1182,50 +1237,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45046</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1243,50 +1302,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>45046</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1298,56 +1361,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45046</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1365,56 +1432,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>45046</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1432,47 +1503,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>45046</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1501,50 +1576,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>45046</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1568,50 +1647,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>45046</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1635,50 +1718,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>45046</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1702,50 +1789,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>45046</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1767,7 +1858,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
